--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/08,25/27,08,25 Ост КИ ПРС ЛП/Заказ ЛП 30,08. ОптДонецк№9.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/08,25/27,08,25 Ост КИ ПРС ЛП/Заказ ЛП 30,08. ОптДонецк№9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\08,25\27,08,25 Ост КИ ПРС ЛП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2403E5-AF6C-4FE8-8A1F-7F44FA5AADA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A025DDE5-BD56-4791-8852-6DCBCC5E9640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,14 +1726,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K1682"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J164" sqref="J164"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61"/>
       <c r="B10" s="46" t="s">
         <v>20</v>
@@ -1876,7 +1876,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="str">
         <f t="shared" ref="A11:A42" si="0">RIGHT(D11,4)</f>
         <v>6415</v>
@@ -1907,7 +1907,7 @@
       <c r="J11" s="29"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4063</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6333</v>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4558</v>
@@ -1993,7 +1993,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6978</v>
@@ -2017,7 +2017,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4561</v>
@@ -2041,7 +2041,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6325</v>
@@ -2067,7 +2067,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4574</v>
@@ -2125,7 +2125,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6769</v>
@@ -2149,7 +2149,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6861</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6340</v>
@@ -2205,7 +2205,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6341</v>
@@ -2231,7 +2231,7 @@
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6862</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="str">
         <f t="shared" si="0"/>
         <v>4813</v>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="str">
         <f t="shared" si="0"/>
         <v>5851</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6268</v>
@@ -2411,7 +2411,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6324</v>
@@ -2469,7 +2469,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6498</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="str">
         <f t="shared" si="0"/>
         <v>7125</v>
@@ -2525,7 +2525,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2675</v>
@@ -2549,7 +2549,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2566,7 +2566,7 @@
       <c r="I35" s="46"/>
       <c r="J35" s="47"/>
     </row>
-    <row r="36" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="str">
         <f t="shared" si="0"/>
         <v>7077</v>
@@ -2597,7 +2597,7 @@
       <c r="J36" s="67"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6602</v>
@@ -2624,7 +2624,7 @@
       <c r="J37" s="29"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6776</v>
@@ -2651,7 +2651,7 @@
       <c r="J38" s="29"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6822</v>
@@ -2678,7 +2678,7 @@
       <c r="J39" s="29"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6303</v>
@@ -2709,7 +2709,7 @@
       <c r="J40" s="29"/>
       <c r="K40" s="27"/>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="str">
         <f t="shared" si="0"/>
         <v>5819</v>
@@ -2740,7 +2740,7 @@
       <c r="J41" s="29"/>
       <c r="K41" s="27"/>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="str">
         <f t="shared" si="0"/>
         <v>6770</v>
@@ -2767,7 +2767,7 @@
       <c r="J42" s="29"/>
       <c r="K42" s="27"/>
     </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="str">
         <f t="shared" ref="A43:A74" si="2">RIGHT(D43,4)</f>
         <v>6768</v>
@@ -2794,7 +2794,7 @@
       <c r="J43" s="29"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6762</v>
@@ -2821,7 +2821,7 @@
       <c r="J44" s="29"/>
       <c r="K44" s="27"/>
     </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6765</v>
@@ -2848,7 +2848,7 @@
       <c r="J45" s="29"/>
       <c r="K45" s="27"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6759</v>
@@ -2875,7 +2875,7 @@
       <c r="J46" s="29"/>
       <c r="K46" s="27"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7082</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="J47" s="29"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6767</v>
@@ -2929,7 +2929,7 @@
       <c r="I48" s="14"/>
       <c r="J48" s="29"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7070</v>
@@ -2953,7 +2953,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="29"/>
     </row>
-    <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6661</v>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="J52" s="29"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6069</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="J53" s="29"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6909</v>
@@ -3105,7 +3105,7 @@
       <c r="I54" s="14"/>
       <c r="J54" s="29"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6764</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="J55" s="29"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6829</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="J56" s="29"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7075</v>
@@ -3189,7 +3189,7 @@
       <c r="I57" s="14"/>
       <c r="J57" s="29"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7073</v>
@@ -3215,7 +3215,7 @@
       <c r="I58" s="14"/>
       <c r="J58" s="29"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7074</v>
@@ -3269,7 +3269,7 @@
       <c r="I60" s="14"/>
       <c r="J60" s="29"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7080</v>
@@ -3295,7 +3295,7 @@
       <c r="I61" s="14"/>
       <c r="J61" s="29"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6616</v>
@@ -3321,7 +3321,7 @@
       <c r="I62" s="14"/>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6761</v>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="J64" s="29"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7066</v>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3432,7 +3432,7 @@
       <c r="I66" s="46"/>
       <c r="J66" s="47"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A67" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7001</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="J67" s="77"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6527</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6550</v>
@@ -3518,7 +3518,7 @@
       <c r="I69" s="14"/>
       <c r="J69" s="29"/>
     </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6608</v>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J70" s="29"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3565,7 +3565,7 @@
       <c r="I71" s="46"/>
       <c r="J71" s="47"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A72" s="59" t="str">
         <f t="shared" si="2"/>
         <v>6586</v>
@@ -3591,7 +3591,7 @@
       <c r="I72" s="14"/>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7144</v>
@@ -3617,7 +3617,7 @@
       <c r="I73" s="14"/>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="59" t="str">
         <f t="shared" si="2"/>
         <v>7146</v>
@@ -3641,7 +3641,7 @@
       <c r="I74" s="14"/>
       <c r="J74" s="29"/>
     </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="59" t="str">
         <f t="shared" ref="A75:A106" si="3">RIGHT(D75,4)</f>
         <v>7149</v>
@@ -3665,7 +3665,7 @@
       <c r="I75" s="14"/>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7131</v>
@@ -3717,7 +3717,7 @@
       <c r="I77" s="14"/>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6666</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7173</v>
@@ -3773,7 +3773,7 @@
       <c r="I79" s="14"/>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7232</v>
@@ -3799,7 +3799,7 @@
       <c r="I80" s="14"/>
       <c r="J80" s="29"/>
     </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6773</v>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="J81" s="29"/>
     </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7241</v>
@@ -3855,7 +3855,7 @@
       <c r="I82" s="14"/>
       <c r="J82" s="29"/>
     </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6683</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="J83" s="29"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5489</v>
@@ -3909,7 +3909,7 @@
       <c r="I84" s="14"/>
       <c r="J84" s="29"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6787</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="J85" s="77"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6697</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="J86" s="29"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6701</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="J87" s="29"/>
     </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7237</v>
@@ -4025,7 +4025,7 @@
       <c r="I88" s="14"/>
       <c r="J88" s="29"/>
     </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6684</v>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="J89" s="29"/>
     </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6689</v>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="J90" s="29"/>
     </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7157</v>
@@ -4109,7 +4109,7 @@
       <c r="I91" s="14"/>
       <c r="J91" s="29"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7166</v>
@@ -4161,7 +4161,7 @@
       <c r="I93" s="14"/>
       <c r="J93" s="29"/>
     </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7169</v>
@@ -4187,7 +4187,7 @@
       <c r="I94" s="14"/>
       <c r="J94" s="29"/>
     </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5341</v>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="J95" s="29"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5544</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6790</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="J97" s="72"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7133</v>
@@ -4299,7 +4299,7 @@
       <c r="I98" s="14"/>
       <c r="J98" s="72"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6791</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="J99" s="72"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6792</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="J100" s="72"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6564</v>
@@ -4381,7 +4381,7 @@
       <c r="I101" s="14"/>
       <c r="J101" s="72"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7238</v>
@@ -4407,7 +4407,7 @@
       <c r="I102" s="14"/>
       <c r="J102" s="72"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="59" t="str">
         <f t="shared" si="3"/>
         <v>6565</v>
@@ -4433,7 +4433,7 @@
       <c r="I103" s="14"/>
       <c r="J103" s="72"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7240</v>
@@ -4459,7 +4459,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="72"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="59" t="str">
         <f t="shared" si="3"/>
         <v>7236</v>
@@ -4513,7 +4513,7 @@
       <c r="I106" s="14"/>
       <c r="J106" s="72"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="59" t="str">
         <f t="shared" ref="A107:A138" si="7">RIGHT(D107,4)</f>
         <v>6793</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="J107" s="72"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6794</v>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="J108" s="72"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6665</v>
@@ -4595,7 +4595,7 @@
       <c r="I109" s="14"/>
       <c r="J109" s="72"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6795</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="J110" s="72"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6796</v>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="J111" s="72"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6804</v>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="J112" s="72"/>
     </row>
-    <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6803</v>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="J113" s="72"/>
     </row>
-    <row r="114" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6807</v>
@@ -4736,7 +4736,7 @@
       <c r="J114" s="72"/>
       <c r="K114" s="27"/>
     </row>
-    <row r="115" spans="1:11" s="68" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" s="68" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="59" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4754,7 +4754,7 @@
       <c r="J115" s="47"/>
       <c r="K115" s="27"/>
     </row>
-    <row r="116" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A116" s="59" t="str">
         <f t="shared" si="7"/>
         <v>5706</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="J116" s="29"/>
     </row>
-    <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="59" t="str">
         <f t="shared" si="7"/>
         <v>5931</v>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="J118" s="77"/>
     </row>
-    <row r="119" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6454</v>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="J119" s="29"/>
     </row>
-    <row r="120" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="59" t="str">
         <f t="shared" si="7"/>
         <v>5708</v>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="J120" s="29"/>
     </row>
-    <row r="121" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="59" t="str">
         <f t="shared" si="7"/>
         <v>0614</v>
@@ -4930,7 +4930,7 @@
       <c r="I121" s="14"/>
       <c r="J121" s="29"/>
     </row>
-    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="59" t="str">
         <f t="shared" si="7"/>
         <v>1146</v>
@@ -4954,7 +4954,7 @@
       <c r="I122" s="14"/>
       <c r="J122" s="29"/>
     </row>
-    <row r="123" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="59" t="str">
         <f t="shared" si="7"/>
         <v>5707</v>
@@ -4980,7 +4980,7 @@
       <c r="I123" s="14"/>
       <c r="J123" s="29"/>
     </row>
-    <row r="124" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="59" t="str">
         <f t="shared" si="7"/>
         <v>4154</v>
@@ -5004,7 +5004,7 @@
       <c r="I124" s="14"/>
       <c r="J124" s="29"/>
     </row>
-    <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6967</v>
@@ -5030,7 +5030,7 @@
       <c r="I125" s="14"/>
       <c r="J125" s="29"/>
     </row>
-    <row r="126" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="59" t="str">
         <f t="shared" si="7"/>
         <v>4993</v>
@@ -5088,7 +5088,7 @@
       <c r="I127" s="14"/>
       <c r="J127" s="29"/>
     </row>
-    <row r="128" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="59" t="str">
         <f t="shared" si="7"/>
         <v>5682</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="J128" s="29"/>
     </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="59" t="str">
         <f t="shared" si="7"/>
         <v>5679</v>
@@ -5144,7 +5144,7 @@
       <c r="I129" s="14"/>
       <c r="J129" s="29"/>
     </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="59" t="str">
         <f t="shared" si="7"/>
         <v>4117</v>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="J131" s="29"/>
     </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6453</v>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="J132" s="29"/>
     </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6557</v>
@@ -5290,7 +5290,7 @@
       <c r="I134" s="14"/>
       <c r="J134" s="29"/>
     </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="59" t="str">
         <f t="shared" si="7"/>
         <v>6228</v>
@@ -5344,7 +5344,7 @@
       <c r="I136" s="14"/>
       <c r="J136" s="29"/>
     </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="59" t="str">
         <f t="shared" si="7"/>
         <v>3287</v>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="J137" s="29"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="59" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5391,7 +5391,7 @@
       <c r="I138" s="46"/>
       <c r="J138" s="47"/>
     </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A139" s="59" t="str">
         <f t="shared" ref="A139:A157" si="9">RIGHT(D139,4)</f>
         <v>6866</v>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="J140" s="29"/>
     </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="59" t="str">
         <f t="shared" si="9"/>
         <v>6025</v>
@@ -5471,7 +5471,7 @@
       <c r="I141" s="14"/>
       <c r="J141" s="29"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="59" t="str">
         <f t="shared" si="9"/>
         <v>6470</v>
@@ -5495,7 +5495,7 @@
       <c r="I142" s="14"/>
       <c r="J142" s="29"/>
     </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="59" t="str">
         <f t="shared" si="9"/>
         <v>4584</v>
@@ -5519,7 +5519,7 @@
       <c r="I143" s="14"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="59" t="str">
         <f t="shared" si="9"/>
         <v>6472</v>
@@ -5543,7 +5543,7 @@
       <c r="I144" s="14"/>
       <c r="J144" s="29"/>
     </row>
-    <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="59" t="str">
         <f t="shared" si="9"/>
         <v>5452</v>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J145" s="29"/>
     </row>
-    <row r="146" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="59" t="str">
         <f t="shared" si="9"/>
         <v>5495</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="J146" s="29"/>
     </row>
-    <row r="147" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="59" t="str">
         <f t="shared" si="9"/>
         <v>6495</v>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="J147" s="29"/>
     </row>
-    <row r="148" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="59" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5650,7 +5650,7 @@
       <c r="I148" s="46"/>
       <c r="J148" s="47"/>
     </row>
-    <row r="149" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A149" s="59" t="str">
         <f t="shared" si="9"/>
         <v>6448</v>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="J149" s="29"/>
     </row>
-    <row r="150" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="59" t="str">
         <f t="shared" si="9"/>
         <v>6586</v>
@@ -5790,7 +5790,7 @@
       <c r="I153" s="14"/>
       <c r="J153" s="29"/>
     </row>
-    <row r="154" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="59" t="str">
         <f t="shared" si="9"/>
         <v>7090</v>
@@ -5848,7 +5848,7 @@
       <c r="I155" s="14"/>
       <c r="J155" s="29"/>
     </row>
-    <row r="156" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="59" t="str">
         <f t="shared" si="9"/>
         <v>7053</v>
@@ -21166,7 +21166,13 @@
       <c r="J1682" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:K158" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:K158" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
